--- a/data_raw/MB_coding.xlsx
+++ b/data_raw/MB_coding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berglund/Documents/NCEAS_DSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgoertler\Desktop\swg-21-meta-analysis\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3514B669-613B-864E-A81E-45E66E4A1AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CF4490-CD9A-487B-B38C-3B3D91A5A816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29980" windowHeight="17940" xr2:uid="{66083394-B0C6-D04A-ABB0-ED69FDDCADE4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{66083394-B0C6-D04A-ABB0-ED69FDDCADE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -51,6 +52,9 @@
     <t>repeats_code</t>
   </si>
   <si>
+    <t>regulated</t>
+  </si>
+  <si>
     <t>notes</t>
   </si>
   <si>
@@ -60,7 +64,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>exclude</t>
+    <t>exclude, population connectivity</t>
   </si>
   <si>
     <t>chl_23</t>
@@ -75,6 +79,9 @@
     <t>n</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t xml:space="preserve">connected and disconnected lagoons sampled in feb, may, august, and nov. Connected lagoons were permenently link to main river. Disconnected lagoons were isolated throughout the stud period. Connectivity was not defined by distance, but authors discussed general differences in distance between different groups (i.e. "disconnected lagoons were generally more distant from the main river channel (10-500m). </t>
   </si>
   <si>
@@ -90,15 +97,18 @@
     <t>chl_42</t>
   </si>
   <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>not about connectivity; examined seasonal differences in rotifer communitites in three different aquatic habitats, but there was no connectivity between these habitats or seasonal changes in connectivity</t>
+  </si>
+  <si>
     <t>chl_53</t>
   </si>
   <si>
     <t>e</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>two lakes near river; generally are permenantly connected to river, but sampling occurred at the end of a drought during which with lakes had been disconnected. Sampling occurred during the time that connectivity was reestablished (Jan), and then in the dry season during "hydrologic stability" (July)</t>
   </si>
   <si>
@@ -120,7 +130,7 @@
     <t>pro_11</t>
   </si>
   <si>
-    <t>sampled lagoons and main channel "during the falling-water period of the dry season (November-April) fromo 1999-2005)". BUT "most lagoon samples" were from a lagoon that is permenantly connected to the main channel throughout the year. Analysis compared lagoon to channel.</t>
+    <t>regulated column note: there is water regulation in this watershed (Orinoo River), but I think not on the tributary that was studied in this paper (Cinaruco River), only downstream; sampled lagoons and main channel "during the falling-water period of the dry season (November-April) fromo 1999-2005)". BUT "most lagoon samples" were from a lagoon that is permenantly connected to the main channel throughout the year. Analysis compared lagoon to channel.</t>
   </si>
   <si>
     <t>pro_22</t>
@@ -135,6 +145,9 @@
     <t>pro_26</t>
   </si>
   <si>
+    <t>exclude, thesis</t>
+  </si>
+  <si>
     <t>pro_17</t>
   </si>
   <si>
@@ -150,9 +163,6 @@
     <t>pro_51</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>exclude because only simulated data. Modeled changes in the Netherlans Delta Words under different managemetn scenarios. Increases or decreases in connectivity under different management scenarios were defined by "expert opinion", g seemed like the closest category fit</t>
   </si>
   <si>
@@ -165,7 +175,7 @@
     <t>chl_1</t>
   </si>
   <si>
-    <t>exclude - dissertation</t>
+    <t>exclude, dissertation</t>
   </si>
   <si>
     <t>chl_79</t>
@@ -178,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -523,23 +533,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C9C334-0E50-AA47-83D6-4BD45DCC9E17}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="43.125" customWidth="1"/>
+    <col min="4" max="4" width="13.34765625" customWidth="1"/>
+    <col min="5" max="6" width="12.34765625" customWidth="1"/>
+    <col min="7" max="7" width="43.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,305 +568,353 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -874,6 +932,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008ECAB31773B3D64A955B79DCECF3D75D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2078a7c437835ce6ccc54ed572140080">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1812b7d3-e7a1-454a-96a7-d89f9c45d61a" xmlns:ns3="6a4f18d6-d02c-47de-8192-877c1ae6ba95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5cdadb961a881ff75adc1ded15049d8" ns2:_="" ns3:_="">
     <xsd:import namespace="1812b7d3-e7a1-454a-96a7-d89f9c45d61a"/>
@@ -1082,20 +1146,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26068AA5-FAEE-4AEC-AA44-461AE90560A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F007A95-73F4-4EED-91E4-DE67D7CE2908}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2A7274C-AFBB-40FA-99B7-13365AD31393}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DE3671F-8DEB-4A44-80AD-A6A65450350B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6849696-F82E-4A83-BF60-B52A33EC6555}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2AA32B3-5AC8-4891-B3ED-ACC5E5354937}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1812b7d3-e7a1-454a-96a7-d89f9c45d61a"/>
+    <ds:schemaRef ds:uri="6a4f18d6-d02c-47de-8192-877c1ae6ba95"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>